--- a/Notes/Reconciliation Notes.xlsx
+++ b/Notes/Reconciliation Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A51CDA0-FDC1-0C4F-9EFB-6831F151496E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D9D163-B104-6C4D-8392-34225D078971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="540" windowWidth="28040" windowHeight="17600" xr2:uid="{38A22187-51DA-2842-BB25-12B0ADF10EEA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>/nalt4ma/issues/75</t>
   </si>
@@ -110,15 +110,6 @@
   </si>
   <si>
     <t>Only issue is, some concepts have 5+ altlabels so It seems impractical to divi this file up so much…need to find a solution that minimizes the reconciliation process and/ or number of files that I have to use to do this</t>
-  </si>
-  <si>
-    <t>16 alt labels!!!</t>
-  </si>
-  <si>
-    <t>exhibit 54321</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hahahahaha</t>
   </si>
   <si>
     <t>FIGURE OUT LATER</t>
@@ -877,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11352B0F-18CC-8845-B612-BA6139490EA5}">
-  <dimension ref="B3:T110"/>
+  <dimension ref="B3:T99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -906,7 +897,7 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L6" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -951,12 +942,12 @@
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="M55" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
@@ -1015,34 +1006,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I108" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="I109" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I110" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1104,7 +1080,7 @@
     </row>
     <row r="6" spans="2:25" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1191,7 +1167,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>9</v>
@@ -1222,7 +1198,7 @@
     </row>
     <row r="6" spans="2:25" ht="21" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>

--- a/Notes/Reconciliation Notes.xlsx
+++ b/Notes/Reconciliation Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D9D163-B104-6C4D-8392-34225D078971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0756775F-A7FD-6747-96E0-1036D4A40429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="540" windowWidth="28040" windowHeight="17600" xr2:uid="{38A22187-51DA-2842-BB25-12B0ADF10EEA}"/>
+    <workbookView xWindow="1840" yWindow="540" windowWidth="28040" windowHeight="17600" activeTab="1" xr2:uid="{38A22187-51DA-2842-BB25-12B0ADF10EEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Reconcile" sheetId="2" r:id="rId1"/>
@@ -434,9 +434,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7772400" cy="4476902"/>
     <xdr:pic>
@@ -460,7 +460,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8521700" y="19697700"/>
+          <a:off x="8915400" y="20281900"/>
           <a:ext cx="7772400" cy="4476902"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11352B0F-18CC-8845-B612-BA6139490EA5}">
   <dimension ref="B3:T99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB8FEAC-5678-D649-AFA7-356860D4D04C}">
   <dimension ref="B2:Y16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
